--- a/biology/Microbiologie/Cthylla_microfasciculumque/Cthylla_microfasciculumque.xlsx
+++ b/biology/Microbiologie/Cthylla_microfasciculumque/Cthylla_microfasciculumque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cthylla microfasciculumque, unique représentant du genre Cthylla,  est une espèce d’excavés parabasaliens.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils vivent dans les entrailles des termites Reticulitermes virginicus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils vivent dans les entrailles des termites Reticulitermes virginicus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cellules mesurent de 10 à 15 µm sur 6 à 10 µm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cellules mesurent de 10 à 15 µm sur 6 à 10 µm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Erick R. James, Noriko Okamoto, Fabien Burki, Rudolf H. Scheffrahn, Patrick J. Keeling et Jonathan H. Badger, « Cthulhu Macrofasciculumque n. g., n. sp. and Cthylla Microfasciculumque n. g., n. sp., a Newly Identified Lineage of Parabasalian Termite Symbionts », PLoS ONE,‎ 18 mars 2013 (PMID 23526991, DOI 10.1371/journal.pone.0058509., lire en ligne)</t>
         </is>
